--- a/support/specifications/flat-file/nyher-fhir-ig-example/Winter-24-CSV.xlsx
+++ b/support/specifications/flat-file/nyher-fhir-ig-example/Winter-24-CSV.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28409"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B84FAF5-077D-404C-8EBB-CCC5E3E78D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{372AB003-6A0B-4EFD-8FF1-EF70A1BCF6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic Data" sheetId="1" r:id="rId1"/>
     <sheet name="QE Admin Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Screening Observation" sheetId="3" r:id="rId3"/>
-    <sheet name="Screening Details" sheetId="9" r:id="rId4"/>
+    <sheet name="Screening Profile" sheetId="9" r:id="rId3"/>
+    <sheet name="Screening Observation" sheetId="3" r:id="rId4"/>
     <sheet name="Change Log" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Change Log'!$A$1:$N$97</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -490,7 +493,144 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={72896948-814B-4594-B32F-3DEFD4CEBA1B}</author>
+    <author>tc={AB8D73DF-236D-457D-87B0-F8D41364C443}</author>
+    <author>tc={AE35D772-A976-4C9F-B0FF-7C45AA1191A3}</author>
+    <author>tc={804B06AA-065C-4091-83E0-ACEE1A81B407}</author>
+    <author>tc={536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}</author>
+    <author>tc={62B258D0-7A4F-4FEB-9191-89D31F562217}</author>
+    <author>tc={3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}</author>
+    <author>tc={681C1D15-B369-4B3C-919A-2F0B2215C813}</author>
+    <author>tc={486CC9F5-0999-4F96-9923-5B32950F15F6}</author>
+    <author>tc={D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}</author>
+    <author>tc={4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}</author>
+    <author>tc={7FA6E572-1D70-4E8A-926E-72DE9823A3CA}</author>
+    <author>tc={205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}</author>
+    <author>tc={1A4E7674-30A3-4079-AD5C-85FD44338686}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
+This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;id</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;status</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the  FHIR Observation resource -&gt;status</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={AA13E25F-FE68-4156-9DEB-4BCE28A9048C}</author>
+    <author>tc={04DE7DCA-F748-4589-B2AB-4B3568CDF66F}</author>
     <author>tc={8A263F6E-AEAA-4CFA-AAAD-27134A08649F}</author>
     <author>tc={349F7E7F-3512-43A9-881A-6C897DAA5E48}</author>
     <author>tc={BEA77AA8-6911-4D0E-BA59-4AF96FC0F5C3}</author>
@@ -518,7 +658,15 @@
 This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{8A263F6E-AEAA-4CFA-AAAD-27134A08649F}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{04DE7DCA-F748-4589-B2AB-4B3568CDF66F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;id</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{8A263F6E-AEAA-4CFA-AAAD-27134A08649F}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -526,7 +674,7 @@
     This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is a grouper </t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{349F7E7F-3512-43A9-881A-6C897DAA5E48}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{349F7E7F-3512-43A9-881A-6C897DAA5E48}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -534,7 +682,7 @@
     This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is a grouper </t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{BEA77AA8-6911-4D0E-BA59-4AF96FC0F5C3}">
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{BEA77AA8-6911-4D0E-BA59-4AF96FC0F5C3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -542,7 +690,7 @@
     This data will be found in the FHIR Observation resource -&gt; effectiveDateTime</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{F014D3FF-B0BC-4BA1-8AF2-613B494BE08F}">
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{F014D3FF-B0BC-4BA1-8AF2-613B494BE08F}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -550,7 +698,7 @@
     This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is not a grouper </t>
       </text>
     </comment>
-    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{4B928C03-4EF4-497D-814C-FC9F483A5B10}">
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{4B928C03-4EF4-497D-814C-FC9F483A5B10}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -558,7 +706,7 @@
     This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is not a grouper </t>
       </text>
     </comment>
-    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{74CF8398-8030-4A1C-A795-9852ECDC31A6}">
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{74CF8398-8030-4A1C-A795-9852ECDC31A6}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -566,7 +714,7 @@
     This data will be found in the FHIR Observation resource -&gt;code-&gt; text where the observation is not a grouper </t>
       </text>
     </comment>
-    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{4407F58D-3F19-4F13-B62F-9F0B6D5F561F}">
+    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{4407F58D-3F19-4F13-B62F-9F0B6D5F561F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -574,7 +722,7 @@
     This data will be found in the FHIR Observation resource -&gt;category-&gt; text where the category is SDOH and the SDOH category is SDOH Category Unspecified</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{A958652F-7E6D-4528-AD64-EC68E3B0AFC8}">
+    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{A958652F-7E6D-4528-AD64-EC68E3B0AFC8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -582,7 +730,7 @@
     This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SDOH </t>
       </text>
     </comment>
-    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{CB537BA9-625D-4386-86A0-060B722D2075}">
+    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{CB537BA9-625D-4386-86A0-060B722D2075}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -590,7 +738,7 @@
     This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is SDOH </t>
       </text>
     </comment>
-    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{AC728550-8F53-4B6C-85A8-DB8CFBEFF7F1}">
+    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{AC728550-8F53-4B6C-85A8-DB8CFBEFF7F1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -598,7 +746,7 @@
     This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SNOMED</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{1DC423B6-3560-466F-B8E0-1431647C66FD}">
+    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{1DC423B6-3560-466F-B8E0-1431647C66FD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -606,7 +754,7 @@
     This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is Snomed</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{34244F04-54B6-41D6-AF91-9EB079B0A4E7}">
+    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{34244F04-54B6-41D6-AF91-9EB079B0A4E7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -614,7 +762,7 @@
     This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; code. </t>
       </text>
     </comment>
-    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{20679167-3EA0-43E7-B53A-F8FAB7648DB8}">
+    <comment ref="O1" authorId="14" shapeId="0" xr:uid="{20679167-3EA0-43E7-B53A-F8FAB7648DB8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -622,7 +770,7 @@
     This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; display. </t>
       </text>
     </comment>
-    <comment ref="O1" authorId="14" shapeId="0" xr:uid="{6CA91F97-61DA-4680-8A35-029D10FD956E}">
+    <comment ref="P1" authorId="15" shapeId="0" xr:uid="{6CA91F97-61DA-4680-8A35-029D10FD956E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -630,7 +778,7 @@
     This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; code. </t>
       </text>
     </comment>
-    <comment ref="P1" authorId="15" shapeId="0" xr:uid="{47214620-2989-43D4-8755-5B653BA0351D}">
+    <comment ref="Q1" authorId="16" shapeId="0" xr:uid="{47214620-2989-43D4-8755-5B653BA0351D}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -638,148 +786,12 @@
     This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="16" shapeId="0" xr:uid="{43671D0C-A6DE-4288-830A-962F5698A778}">
+    <comment ref="R1" authorId="17" shapeId="0" xr:uid="{43671D0C-A6DE-4288-830A-962F5698A778}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; text </t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={72896948-814B-4594-B32F-3DEFD4CEBA1B}</author>
-    <author>tc={AB8D73DF-236D-457D-87B0-F8D41364C443}</author>
-    <author>tc={AE35D772-A976-4C9F-B0FF-7C45AA1191A3}</author>
-    <author>tc={804B06AA-065C-4091-83E0-ACEE1A81B407}</author>
-    <author>tc={536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}</author>
-    <author>tc={62B258D0-7A4F-4FEB-9191-89D31F562217}</author>
-    <author>tc={3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}</author>
-    <author>tc={681C1D15-B369-4B3C-919A-2F0B2215C813}</author>
-    <author>tc={486CC9F5-0999-4F96-9923-5B32950F15F6}</author>
-    <author>tc={D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}</author>
-    <author>tc={4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}</author>
-    <author>tc={7FA6E572-1D70-4E8A-926E-72DE9823A3CA}</author>
-    <author>tc={205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}</author>
-    <author>tc={1A4E7674-30A3-4079-AD5C-85FD44338686}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
-This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;id</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;status</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</t>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the  FHIR Observation resource -&gt;status</t>
       </text>
     </comment>
   </commentList>
@@ -787,7 +799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="325">
   <si>
     <t>PATIENT_MR_ID_VALUE</t>
   </si>
@@ -1071,6 +1083,66 @@
     <t>http://www.scn.ny.gov/</t>
   </si>
   <si>
+    <t>ENCOUNTER_ID</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE_SYSTEM</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>CONSENT_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>CONSENT_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONSENT_POLICY_AUTHORITY</t>
+  </si>
+  <si>
+    <t>CONSENT_PROVISION_TYPE</t>
+  </si>
+  <si>
+    <t>SCREENING_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>SCREENING_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>EncounterExample</t>
+  </si>
+  <si>
+    <t>FLD</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Direct questioning (procedure)</t>
+  </si>
+  <si>
+    <t>urn:uuid:d1eaac1a-22b7-4bb6-9c62-cc95d6fdf1a5</t>
+  </si>
+  <si>
+    <t>permit</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>SCREENING_CODE</t>
   </si>
   <si>
@@ -1566,66 +1638,6 @@
     <t>Because of a physical, mental, or emotional condition, do you have difficulty doing errands alone such as visiting a physician's office or shopping</t>
   </si>
   <si>
-    <t>ENCOUNTER_ID</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_CLASS_CODE</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_STATUS_CODE</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_TYPE_CODE_SYSTEM</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_LAST_UPDATED</t>
-  </si>
-  <si>
-    <t>CONSENT_LAST_UPDATED</t>
-  </si>
-  <si>
-    <t>CONSENT_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONSENT_POLICY_AUTHORITY</t>
-  </si>
-  <si>
-    <t>CONSENT_PROVISION_TYPE</t>
-  </si>
-  <si>
-    <t>SCREENING_LAST_UPDATED</t>
-  </si>
-  <si>
-    <t>SCREENING_STATUS_CODE</t>
-  </si>
-  <si>
-    <t>EncounterExample</t>
-  </si>
-  <si>
-    <t>FLD</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>Direct questioning (procedure)</t>
-  </si>
-  <si>
-    <t>urn:uuid:d1eaac1a-22b7-4bb6-9c62-cc95d6fdf1a5</t>
-  </si>
-  <si>
-    <t>permit</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>This sheet explains all the diffeence between trhe business logic and schema described in the original excel docuemt at url and SHIN-NY IG version v1.0.0. Needs to be updated.</t>
   </si>
   <si>
@@ -1755,22 +1767,13 @@
     <t>0..*</t>
   </si>
   <si>
-    <t>Screening file has been removed and the data from screening is covered under the files Screening Observation, Screening Details</t>
+    <t>Screening file has been removed and the data from screening is covered under the files Screening Observation, Screening Profile</t>
   </si>
   <si>
     <t>Screening Observation</t>
   </si>
   <si>
-    <t>Screening Details</t>
-  </si>
-  <si>
-    <t>Screening Encounter</t>
-  </si>
-  <si>
-    <t>Screening Consent</t>
-  </si>
-  <si>
-    <t>Screening Resources</t>
+    <t>Screening Profile</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1934,6 +1937,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1943,11 +1949,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2446,105 +2447,108 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AA13E25F-FE68-4156-9DEB-4BCE28A9048C}">
+  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
     <text>PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
 This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2024-11-26T17:13:40.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{8A263F6E-AEAA-4CFA-AAAD-27134A08649F}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is a grouper </text>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2024-11-26T17:14:01.87" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{349F7E7F-3512-43A9-881A-6C897DAA5E48}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is a grouper </text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2024-11-26T17:17:49.79" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{BEA77AA8-6911-4D0E-BA59-4AF96FC0F5C3}">
-    <text>This data will be found in the FHIR Observation resource -&gt; effectiveDateTime</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2024-11-26T17:21:17.73" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{F014D3FF-B0BC-4BA1-8AF2-613B494BE08F}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is not a grouper </text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-11-26T17:21:30.01" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4B928C03-4EF4-497D-814C-FC9F483A5B10}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is not a grouper </text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2024-11-26T17:21:59.98" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{74CF8398-8030-4A1C-A795-9852ECDC31A6}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt; text where the observation is not a grouper </text>
-  </threadedComment>
-  <threadedComment ref="H1" dT="2024-11-27T04:09:17.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4407F58D-3F19-4F13-B62F-9F0B6D5F561F}">
-    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; text where the category is SDOH and the SDOH category is SDOH Category Unspecified</text>
-  </threadedComment>
-  <threadedComment ref="I1" dT="2024-11-27T04:09:55.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{A958652F-7E6D-4528-AD64-EC68E3B0AFC8}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SDOH </text>
-  </threadedComment>
-  <threadedComment ref="J1" dT="2024-11-27T04:10:48.91" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{CB537BA9-625D-4386-86A0-060B722D2075}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is SDOH </text>
-  </threadedComment>
-  <threadedComment ref="K1" dT="2024-11-27T04:11:33.02" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AC728550-8F53-4B6C-85A8-DB8CFBEFF7F1}">
-    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SNOMED</text>
-  </threadedComment>
-  <threadedComment ref="L1" dT="2024-11-27T04:12:02.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1DC423B6-3560-466F-B8E0-1431647C66FD}">
-    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is Snomed</text>
-  </threadedComment>
-  <threadedComment ref="M1" dT="2024-11-27T04:13:42.78" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{34244F04-54B6-41D6-AF91-9EB079B0A4E7}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; code. </text>
-  </threadedComment>
-  <threadedComment ref="N1" dT="2024-11-27T04:13:56.21" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{20679167-3EA0-43E7-B53A-F8FAB7648DB8}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; display. </text>
-  </threadedComment>
-  <threadedComment ref="O1" dT="2024-11-27T12:45:36.80" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{6CA91F97-61DA-4680-8A35-029D10FD956E}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; code. </text>
-  </threadedComment>
-  <threadedComment ref="P1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{47214620-2989-43D4-8755-5B653BA0351D}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </text>
-  </threadedComment>
-  <threadedComment ref="Q1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{43671D0C-A6DE-4288-830A-962F5698A778}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; text </text>
+  <threadedComment ref="B1" dT="2024-11-26T16:54:13.96" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;id</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2024-11-26T16:54:38.88" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2024-11-26T16:56:39.49" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;status</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2024-11-26T16:58:06.67" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-11-26T16:58:32.95" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-11-26T16:58:54.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-11-13T08:20:35.99" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
+    <text>This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2024-11-27T04:34:23.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
+    <text>This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2024-11-27T04:44:44.92" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
+    <text>This data will be found in the FHIR Consent resource -&gt;dateTime</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2024-11-27T04:43:14.86" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
+    <text xml:space="preserve">This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2024-11-27T04:45:09.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
+    <text>This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2024-11-27T04:57:51.11" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
+    <text>This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2024-11-13T09:10:26.90" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
+    <text>This data will be found in the  FHIR Observation resource -&gt;status</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
+  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AA13E25F-FE68-4156-9DEB-4BCE28A9048C}">
     <text>PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
 This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2024-11-26T16:54:13.96" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
+  <threadedComment ref="B1" dT="2024-11-26T16:54:13.96" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{04DE7DCA-F748-4589-B2AB-4B3568CDF66F}">
     <text>This value can be found in the FHIR Encounter resource -&gt;id</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-11-26T16:54:38.88" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2024-11-26T16:56:39.49" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;status</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2024-11-26T16:58:06.67" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-11-26T16:58:32.95" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2024-11-26T16:58:54.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</text>
-  </threadedComment>
-  <threadedComment ref="H1" dT="2024-11-13T08:20:35.99" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
-    <text>This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</text>
-  </threadedComment>
-  <threadedComment ref="I1" dT="2024-11-27T04:34:23.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
-    <text>This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</text>
-  </threadedComment>
-  <threadedComment ref="J1" dT="2024-11-27T04:44:44.92" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
-    <text>This data will be found in the FHIR Consent resource -&gt;dateTime</text>
-  </threadedComment>
-  <threadedComment ref="K1" dT="2024-11-27T04:43:14.86" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
-    <text xml:space="preserve">This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </text>
-  </threadedComment>
-  <threadedComment ref="L1" dT="2024-11-27T04:45:09.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
-    <text>This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</text>
-  </threadedComment>
-  <threadedComment ref="M1" dT="2024-11-27T04:57:51.11" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
-    <text>This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</text>
-  </threadedComment>
-  <threadedComment ref="N1" dT="2024-11-13T09:10:26.90" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
-    <text>This data will be found in the  FHIR Observation resource -&gt;status</text>
+  <threadedComment ref="C1" dT="2024-11-26T17:13:40.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{8A263F6E-AEAA-4CFA-AAAD-27134A08649F}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is a grouper </text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2024-11-26T17:14:01.87" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{349F7E7F-3512-43A9-881A-6C897DAA5E48}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is a grouper </text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2024-11-26T17:17:49.79" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{BEA77AA8-6911-4D0E-BA59-4AF96FC0F5C3}">
+    <text>This data will be found in the FHIR Observation resource -&gt; effectiveDateTime</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-11-26T17:21:17.73" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{F014D3FF-B0BC-4BA1-8AF2-613B494BE08F}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is not a grouper </text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-11-26T17:21:30.01" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4B928C03-4EF4-497D-814C-FC9F483A5B10}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is not a grouper </text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-11-26T17:21:59.98" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{74CF8398-8030-4A1C-A795-9852ECDC31A6}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt; text where the observation is not a grouper </text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2024-11-27T04:09:17.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4407F58D-3F19-4F13-B62F-9F0B6D5F561F}">
+    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; text where the category is SDOH and the SDOH category is SDOH Category Unspecified</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2024-11-27T04:09:55.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{A958652F-7E6D-4528-AD64-EC68E3B0AFC8}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SDOH </text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2024-11-27T04:10:48.91" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{CB537BA9-625D-4386-86A0-060B722D2075}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is SDOH </text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2024-11-27T04:11:33.02" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AC728550-8F53-4B6C-85A8-DB8CFBEFF7F1}">
+    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SNOMED</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2024-11-27T04:12:02.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1DC423B6-3560-466F-B8E0-1431647C66FD}">
+    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is Snomed</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2024-11-27T04:13:42.78" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{34244F04-54B6-41D6-AF91-9EB079B0A4E7}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; code. </text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2024-11-27T04:13:56.21" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{20679167-3EA0-43E7-B53A-F8FAB7648DB8}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; display. </text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2024-11-27T12:45:36.80" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{6CA91F97-61DA-4680-8A35-029D10FD956E}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; code. </text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{47214620-2989-43D4-8755-5B653BA0351D}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{43671D0C-A6DE-4288-830A-962F5698A778}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; text </text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2553,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2848,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E656CF-E116-470E-A3B2-FBFB1DA8B1CF}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2879,7 +2883,7 @@
       <c r="C1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2953,7 +2957,7 @@
       <c r="M2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2967,1157 +2971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCE62ED-6F52-49FE-89FA-F3C6891E8BA9}">
-  <dimension ref="A1:Q31"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="127.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="196" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="31.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" t="s">
-        <v>154</v>
-      </c>
-      <c r="N12" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" t="s">
-        <v>175</v>
-      </c>
-      <c r="M13" t="s">
-        <v>176</v>
-      </c>
-      <c r="N13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" t="s">
-        <v>182</v>
-      </c>
-      <c r="M14" t="s">
-        <v>183</v>
-      </c>
-      <c r="N14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J15" t="s">
-        <v>189</v>
-      </c>
-      <c r="M15" t="s">
-        <v>190</v>
-      </c>
-      <c r="N15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17">
-        <v>106133000</v>
-      </c>
-      <c r="L17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M17" t="s">
-        <v>199</v>
-      </c>
-      <c r="N17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F18" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" t="s">
-        <v>203</v>
-      </c>
-      <c r="K18">
-        <v>365458002</v>
-      </c>
-      <c r="L18" t="s">
-        <v>204</v>
-      </c>
-      <c r="M18" t="s">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19">
-        <v>129861002</v>
-      </c>
-      <c r="L19" t="s">
-        <v>208</v>
-      </c>
-      <c r="M19" t="s">
-        <v>209</v>
-      </c>
-      <c r="N19" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20">
-        <v>129861002</v>
-      </c>
-      <c r="L20" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" t="s">
-        <v>213</v>
-      </c>
-      <c r="N20" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" t="s">
-        <v>219</v>
-      </c>
-      <c r="K22">
-        <v>228273003</v>
-      </c>
-      <c r="L22" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" t="s">
-        <v>221</v>
-      </c>
-      <c r="N22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" t="s">
-        <v>225</v>
-      </c>
-      <c r="K23">
-        <v>365980008</v>
-      </c>
-      <c r="L23" t="s">
-        <v>226</v>
-      </c>
-      <c r="M23" t="s">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" t="s">
-        <v>228</v>
-      </c>
-      <c r="G24" t="s">
-        <v>229</v>
-      </c>
-      <c r="K24">
-        <v>409069009</v>
-      </c>
-      <c r="L24" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" t="s">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" t="s">
-        <v>233</v>
-      </c>
-      <c r="K25">
-        <v>228366006</v>
-      </c>
-      <c r="L25" t="s">
-        <v>234</v>
-      </c>
-      <c r="M25" t="s">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" t="s">
-        <v>236</v>
-      </c>
-      <c r="G26" t="s">
-        <v>237</v>
-      </c>
-      <c r="K26">
-        <v>36456004</v>
-      </c>
-      <c r="L26" t="s">
-        <v>238</v>
-      </c>
-      <c r="M26" t="s">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27" t="s">
-        <v>242</v>
-      </c>
-      <c r="G27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K27">
-        <v>36456004</v>
-      </c>
-      <c r="L27" t="s">
-        <v>238</v>
-      </c>
-      <c r="M27" t="s">
-        <v>239</v>
-      </c>
-      <c r="N27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" t="s">
-        <v>244</v>
-      </c>
-      <c r="G28" t="s">
-        <v>244</v>
-      </c>
-      <c r="K28">
-        <v>36456004</v>
-      </c>
-      <c r="L28" t="s">
-        <v>238</v>
-      </c>
-      <c r="M28" t="s">
-        <v>239</v>
-      </c>
-      <c r="N28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" t="s">
-        <v>247</v>
-      </c>
-      <c r="I29" t="s">
-        <v>248</v>
-      </c>
-      <c r="J29" t="s">
-        <v>249</v>
-      </c>
-      <c r="M29" t="s">
-        <v>239</v>
-      </c>
-      <c r="N29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" t="s">
-        <v>252</v>
-      </c>
-      <c r="H30" t="s">
-        <v>253</v>
-      </c>
-      <c r="I30" t="s">
-        <v>153</v>
-      </c>
-      <c r="J30" t="s">
-        <v>154</v>
-      </c>
-      <c r="O30" t="s">
-        <v>254</v>
-      </c>
-      <c r="P30" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" t="s">
-        <v>258</v>
-      </c>
-      <c r="H31" t="s">
-        <v>253</v>
-      </c>
-      <c r="I31" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" t="s">
-        <v>154</v>
-      </c>
-      <c r="M31" t="s">
-        <v>142</v>
-      </c>
-      <c r="N31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6C365E-EF48-4ACD-93DF-A89DE3724212}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4143,43 +3001,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>262</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>267</v>
+        <v>102</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>268</v>
+        <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>271</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.5">
@@ -4187,19 +3045,19 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>405672008</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>55</v>
@@ -4214,16 +3072,16 @@
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
         <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>278</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4235,12 +3093,1253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCE62ED-6F52-49FE-89FA-F3C6891E8BA9}">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="196" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" customWidth="1"/>
+    <col min="12" max="12" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" t="s">
+        <v>195</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" t="s">
+        <v>202</v>
+      </c>
+      <c r="N14" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15" t="s">
+        <v>209</v>
+      </c>
+      <c r="N15" t="s">
+        <v>210</v>
+      </c>
+      <c r="O15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16" t="s">
+        <v>209</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" t="s">
+        <v>217</v>
+      </c>
+      <c r="L17">
+        <v>106133000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18">
+        <v>365458002</v>
+      </c>
+      <c r="M18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N18" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19">
+        <v>129861002</v>
+      </c>
+      <c r="M19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N19" t="s">
+        <v>229</v>
+      </c>
+      <c r="O19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L20">
+        <v>129861002</v>
+      </c>
+      <c r="M20" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20" t="s">
+        <v>233</v>
+      </c>
+      <c r="O20" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22">
+        <v>228273003</v>
+      </c>
+      <c r="M22" t="s">
+        <v>240</v>
+      </c>
+      <c r="N22" t="s">
+        <v>241</v>
+      </c>
+      <c r="O22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" t="s">
+        <v>245</v>
+      </c>
+      <c r="L23">
+        <v>365980008</v>
+      </c>
+      <c r="M23" t="s">
+        <v>246</v>
+      </c>
+      <c r="N23" t="s">
+        <v>241</v>
+      </c>
+      <c r="O23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L24">
+        <v>409069009</v>
+      </c>
+      <c r="M24" t="s">
+        <v>250</v>
+      </c>
+      <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25">
+        <v>228366006</v>
+      </c>
+      <c r="M25" t="s">
+        <v>254</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26">
+        <v>36456004</v>
+      </c>
+      <c r="M26" t="s">
+        <v>258</v>
+      </c>
+      <c r="N26" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27">
+        <v>36456004</v>
+      </c>
+      <c r="M27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28">
+        <v>36456004</v>
+      </c>
+      <c r="M28" t="s">
+        <v>258</v>
+      </c>
+      <c r="N28" t="s">
+        <v>259</v>
+      </c>
+      <c r="O28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30" t="s">
+        <v>272</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>275</v>
+      </c>
+      <c r="R30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" t="s">
+        <v>278</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" t="s">
+        <v>174</v>
+      </c>
+      <c r="N31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D60A84-5E08-43D0-B361-C2827226B37C}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD98"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4256,22 +4355,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="15.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="15.75">
       <c r="A2" s="14" t="s">
@@ -4683,23 +4782,23 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:8" s="16" customFormat="1">
+      <c r="A21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="F21" s="8" t="b">
+      <c r="F21" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="16" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4891,7 +4990,7 @@
       <c r="G30" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
@@ -4915,7 +5014,7 @@
       <c r="G31" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
@@ -4939,7 +5038,7 @@
       <c r="G32" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -4963,7 +5062,7 @@
       <c r="G33" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
@@ -4987,7 +5086,7 @@
       <c r="G34" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H34" s="23"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
@@ -5011,7 +5110,7 @@
       <c r="G35" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1">
       <c r="A36" s="8" t="s">
@@ -5560,27 +5659,27 @@
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:7" s="12" customFormat="1">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:7" s="12" customFormat="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
       <c r="A66" s="8" t="s">
@@ -5624,13 +5723,13 @@
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
       <c r="A68" s="8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>323</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>302</v>
@@ -5644,13 +5743,13 @@
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1">
       <c r="A69" s="8" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>323</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>302</v>
@@ -5664,13 +5763,13 @@
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1">
       <c r="A70" s="8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>323</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>302</v>
@@ -5684,13 +5783,13 @@
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1">
       <c r="A71" s="8" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>323</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>302</v>
@@ -5704,13 +5803,13 @@
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1">
       <c r="A72" s="8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>323</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>302</v>
@@ -5722,35 +5821,35 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="73" spans="1:7" s="8" customFormat="1">
+      <c r="A73" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D73" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F73" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>298</v>
+      <c r="F73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
         <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
         <v>302</v>
@@ -5764,13 +5863,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
         <v>323</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E75" t="s">
         <v>302</v>
@@ -5784,13 +5883,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
         <v>323</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
         <v>302</v>
@@ -5804,13 +5903,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
         <v>323</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
         <v>302</v>
@@ -5824,13 +5923,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B78" t="s">
         <v>323</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
         <v>302</v>
@@ -5844,13 +5943,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s">
         <v>323</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
         <v>302</v>
@@ -5864,13 +5963,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
         <v>323</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
         <v>302</v>
@@ -5884,13 +5983,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
         <v>323</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
         <v>302</v>
@@ -5904,13 +6003,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
         <v>323</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
         <v>302</v>
@@ -5922,35 +6021,35 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="8" customFormat="1">
-      <c r="A83" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="8" t="s">
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" t="s">
         <v>302</v>
       </c>
-      <c r="F83" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>296</v>
+      <c r="F83" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1">
       <c r="A84" s="8" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>324</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>302</v>
@@ -5964,13 +6063,13 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1">
       <c r="A85" s="8" t="s">
-        <v>260</v>
+        <v>94</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>324</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>260</v>
+        <v>94</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>302</v>
@@ -5984,13 +6083,13 @@
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1">
       <c r="A86" s="8" t="s">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>324</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>302</v>
@@ -6002,35 +6101,35 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>262</v>
-      </c>
-      <c r="B87" t="s">
-        <v>325</v>
-      </c>
-      <c r="D87" t="s">
-        <v>262</v>
-      </c>
-      <c r="E87" t="s">
+    <row r="87" spans="1:7" s="8" customFormat="1">
+      <c r="A87" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F87" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>298</v>
+      <c r="F87" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D88" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="E88" t="s">
         <v>302</v>
@@ -6044,13 +6143,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="E89" t="s">
         <v>302</v>
@@ -6062,35 +6161,35 @@
         <v>298</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="8" customFormat="1">
-      <c r="A90" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E90" s="8" t="s">
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" t="s">
         <v>302</v>
       </c>
-      <c r="F90" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>296</v>
+      <c r="F90" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1">
       <c r="A91" s="8" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>302</v>
@@ -6104,13 +6203,13 @@
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1">
       <c r="A92" s="8" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>302</v>
@@ -6122,35 +6221,35 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>268</v>
-      </c>
-      <c r="B93" t="s">
-        <v>326</v>
-      </c>
-      <c r="D93" t="s">
-        <v>268</v>
-      </c>
-      <c r="E93" t="s">
+    <row r="93" spans="1:7" s="8" customFormat="1">
+      <c r="A93" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>298</v>
+      <c r="F93" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D94" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="E94" t="s">
         <v>302</v>
@@ -6162,35 +6261,35 @@
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="8" customFormat="1">
-      <c r="A95" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E95" s="8" t="s">
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" t="s">
         <v>302</v>
       </c>
-      <c r="F95" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>296</v>
+      <c r="F95" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1">
       <c r="A96" s="8" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>302</v>
@@ -6199,6 +6298,26 @@
         <v>1</v>
       </c>
       <c r="G96" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1">
+      <c r="A97" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F97" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>296</v>
       </c>
     </row>

--- a/support/specifications/flat-file/nyher-fhir-ig-example/Winter-24-CSV.xlsx
+++ b/support/specifications/flat-file/nyher-fhir-ig-example/Winter-24-CSV.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372AB003-6A0B-4EFD-8FF1-EF70A1BCF6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2769EEAA-9EB1-45E2-91F4-22CEA9E943AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic Data" sheetId="1" r:id="rId1"/>
     <sheet name="QE Admin Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Screening Profile" sheetId="9" r:id="rId3"/>
-    <sheet name="Screening Observation" sheetId="3" r:id="rId4"/>
+    <sheet name="Screening Observation" sheetId="3" r:id="rId3"/>
+    <sheet name="Screening Profile" sheetId="9" r:id="rId4"/>
     <sheet name="Change Log" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Change Log'!$A$1:$N$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Change Log'!$B$1:$O$97</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -493,142 +493,6 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={72896948-814B-4594-B32F-3DEFD4CEBA1B}</author>
-    <author>tc={AB8D73DF-236D-457D-87B0-F8D41364C443}</author>
-    <author>tc={AE35D772-A976-4C9F-B0FF-7C45AA1191A3}</author>
-    <author>tc={804B06AA-065C-4091-83E0-ACEE1A81B407}</author>
-    <author>tc={536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}</author>
-    <author>tc={62B258D0-7A4F-4FEB-9191-89D31F562217}</author>
-    <author>tc={3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}</author>
-    <author>tc={681C1D15-B369-4B3C-919A-2F0B2215C813}</author>
-    <author>tc={486CC9F5-0999-4F96-9923-5B32950F15F6}</author>
-    <author>tc={D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}</author>
-    <author>tc={4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}</author>
-    <author>tc={7FA6E572-1D70-4E8A-926E-72DE9823A3CA}</author>
-    <author>tc={205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}</author>
-    <author>tc={1A4E7674-30A3-4079-AD5C-85FD44338686}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
-This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;id</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;status</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</t>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the  FHIR Observation resource -&gt;status</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={AA13E25F-FE68-4156-9DEB-4BCE28A9048C}</author>
     <author>tc={04DE7DCA-F748-4589-B2AB-4B3568CDF66F}</author>
     <author>tc={8A263F6E-AEAA-4CFA-AAAD-27134A08649F}</author>
@@ -798,8 +662,153 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={72896948-814B-4594-B32F-3DEFD4CEBA1B}</author>
+    <author>tc={AB8D73DF-236D-457D-87B0-F8D41364C443}</author>
+    <author>tc={AE35D772-A976-4C9F-B0FF-7C45AA1191A3}</author>
+    <author>tc={804B06AA-065C-4091-83E0-ACEE1A81B407}</author>
+    <author>tc={536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}</author>
+    <author>tc={62B258D0-7A4F-4FEB-9191-89D31F562217}</author>
+    <author>tc={3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}</author>
+    <author>tc={681C1D15-B369-4B3C-919A-2F0B2215C813}</author>
+    <author>tc={486CC9F5-0999-4F96-9923-5B32950F15F6}</author>
+    <author>tc={D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}</author>
+    <author>tc={1B51EECA-6855-4427-92C2-E6415F70E6A5}</author>
+    <author>tc={4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}</author>
+    <author>tc={7FA6E572-1D70-4E8A-926E-72DE9823A3CA}</author>
+    <author>tc={205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}</author>
+    <author>tc={1A4E7674-30A3-4079-AD5C-85FD44338686}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
+This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;id</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;status</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{1B51EECA-6855-4427-92C2-E6415F70E6A5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="14" shapeId="0" xr:uid="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the  FHIR Observation resource -&gt;status</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="329">
   <si>
     <t>PATIENT_MR_ID_VALUE</t>
   </si>
@@ -1086,6 +1095,504 @@
     <t>ENCOUNTER_ID</t>
   </si>
   <si>
+    <t>SCREENING_CODE</t>
+  </si>
+  <si>
+    <t>SCREENING_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE_DISPLAY</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE_TEXT</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SDOH_TEXT</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SDOH_CODE</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SDOH_DISPLAY</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SNOMED_CODE</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SNOMED_DISPLAY</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DATA_ABSENT_REASON_CODE</t>
+  </si>
+  <si>
+    <t>DATA_ABSENT_REASON_DISPLAY</t>
+  </si>
+  <si>
+    <t>DATA_ABSENT_REASON_TEXT</t>
+  </si>
+  <si>
+    <t>EncounterExample</t>
+  </si>
+  <si>
+    <t>96777-8</t>
+  </si>
+  <si>
+    <t>Accountable health communities (AHC) health-related social needs screening (HRSN) tool</t>
+  </si>
+  <si>
+    <t>2023-07-12T16:08:00.000Z</t>
+  </si>
+  <si>
+    <t>71802-3</t>
+  </si>
+  <si>
+    <t>Housing status</t>
+  </si>
+  <si>
+    <t>What is your living situation today?</t>
+  </si>
+  <si>
+    <t>housing-instability</t>
+  </si>
+  <si>
+    <t>Housing Instability</t>
+  </si>
+  <si>
+    <t>LA31993-1</t>
+  </si>
+  <si>
+    <t>I have a steady place to live</t>
+  </si>
+  <si>
+    <t>96778-6</t>
+  </si>
+  <si>
+    <t>Problems with place where you live</t>
+  </si>
+  <si>
+    <t>Think about the place you live. Do you have problems with any of the following?</t>
+  </si>
+  <si>
+    <t>inadequate-housing</t>
+  </si>
+  <si>
+    <t>Inadequate Housing</t>
+  </si>
+  <si>
+    <t>LA28580-1</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>88122-7</t>
+  </si>
+  <si>
+    <t>Within the past 12 months we worried whether our food would run out before we got money to buy more [U.S. FSS]</t>
+  </si>
+  <si>
+    <t>Within the past 12 months, you worried that your food would run out before you got money to buy more.</t>
+  </si>
+  <si>
+    <t>food-insecurity</t>
+  </si>
+  <si>
+    <t>Food Insecurity</t>
+  </si>
+  <si>
+    <t>LA28397-0</t>
+  </si>
+  <si>
+    <t>Often true</t>
+  </si>
+  <si>
+    <t>88123-5</t>
+  </si>
+  <si>
+    <t>Within the past 12 months the food we bought just didn't last and we didn't have money to get more [U.S. FSS]</t>
+  </si>
+  <si>
+    <t>Within the past 12 months, the food you bought just didn't last and you didn't have money to get more.</t>
+  </si>
+  <si>
+    <t>93030-5</t>
+  </si>
+  <si>
+    <t>Has lack of transportation kept you from medical appointments, meetings, work, or from getting things needed for daily living</t>
+  </si>
+  <si>
+    <t>In the past 12 months, has lack of reliable transportation kept you from medical appointments, meetings, work or from getting things needed for daily living?</t>
+  </si>
+  <si>
+    <t>transportation-insecurity</t>
+  </si>
+  <si>
+    <t>Transportation Insecurity</t>
+  </si>
+  <si>
+    <t>LA32-8</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96779-4</t>
+  </si>
+  <si>
+    <t>Has the electric, gas, oil, or water company threatened to shut off services in your home in past 12 months</t>
+  </si>
+  <si>
+    <t>In the past 12 months has the electric, gas, oil, or water company threatened to shut off services in your home?</t>
+  </si>
+  <si>
+    <t>utility-insecurity</t>
+  </si>
+  <si>
+    <t>Utility Insecurity</t>
+  </si>
+  <si>
+    <t>95618-5</t>
+  </si>
+  <si>
+    <t>Physically hurt you [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, physically hurt you?</t>
+  </si>
+  <si>
+    <t>Interpersonal Safety</t>
+  </si>
+  <si>
+    <t>sdoh-category-unspecified</t>
+  </si>
+  <si>
+    <t>SDOH Category Unspecified</t>
+  </si>
+  <si>
+    <t>LA6270-8</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>95617-7</t>
+  </si>
+  <si>
+    <t>Insult you or talk down to you [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, insult or talk down to you?</t>
+  </si>
+  <si>
+    <t>95616-9</t>
+  </si>
+  <si>
+    <t>Threaten you with physical harm [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, threaten you with harm?</t>
+  </si>
+  <si>
+    <t>95615-1</t>
+  </si>
+  <si>
+    <t>Scream or curse at you [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, scream or curse at you?</t>
+  </si>
+  <si>
+    <t>95614-4</t>
+  </si>
+  <si>
+    <t>Total score [HITS]</t>
+  </si>
+  <si>
+    <t>Total Safety Score</t>
+  </si>
+  <si>
+    <t>97023-6</t>
+  </si>
+  <si>
+    <t>Accountable health communities (AHC) health-related social needs (HRSN) supplemental questions</t>
+  </si>
+  <si>
+    <t>76513-1</t>
+  </si>
+  <si>
+    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating</t>
+  </si>
+  <si>
+    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating? Would you say it is</t>
+  </si>
+  <si>
+    <t>financial-insecurity</t>
+  </si>
+  <si>
+    <t>Financial Insecurity</t>
+  </si>
+  <si>
+    <t>LA22683-9</t>
+  </si>
+  <si>
+    <t>Somewhat Hard</t>
+  </si>
+  <si>
+    <t>96780-2</t>
+  </si>
+  <si>
+    <t>Wants help finding or keeping work or a job</t>
+  </si>
+  <si>
+    <t>Do you want help finding or keeping work or a job?</t>
+  </si>
+  <si>
+    <t>employment-status</t>
+  </si>
+  <si>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>LA31981-6</t>
+  </si>
+  <si>
+    <t>Yes, help finding work</t>
+  </si>
+  <si>
+    <t>96781-0</t>
+  </si>
+  <si>
+    <t>Able to get help with daily activities when needed</t>
+  </si>
+  <si>
+    <t>If for any reason you need help with day-to-day activities such as bathing, preparing meals, shopping, managing finances, etc., do you get the help you need?</t>
+  </si>
+  <si>
+    <t>social-connection</t>
+  </si>
+  <si>
+    <t>Social Connection</t>
+  </si>
+  <si>
+    <t>LA31976-6</t>
+  </si>
+  <si>
+    <t>I don't need any help</t>
+  </si>
+  <si>
+    <t>93159-2</t>
+  </si>
+  <si>
+    <t>How often do you feel lonely or isolated from those around you during assessment period [CMS Assessment]</t>
+  </si>
+  <si>
+    <t>How often do you feel lonely or isolated from those around you?</t>
+  </si>
+  <si>
+    <t>97027-7</t>
+  </si>
+  <si>
+    <t>Speaks a language other than English at home</t>
+  </si>
+  <si>
+    <t>Do you speak a language other than English at home?</t>
+  </si>
+  <si>
+    <t>Language finding (finding)</t>
+  </si>
+  <si>
+    <t>LA33-6</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>96782-8</t>
+  </si>
+  <si>
+    <t>Wants help with school or training</t>
+  </si>
+  <si>
+    <t>Do you want help with school or training? For example, starting or completing job training or getting a high school diploma, GED or equivalent.</t>
+  </si>
+  <si>
+    <t>Education and/or schooling finding</t>
+  </si>
+  <si>
+    <t>89555-7</t>
+  </si>
+  <si>
+    <t>How many days per week did you engage in moderate to strenuous physical activity in the last 30 days</t>
+  </si>
+  <si>
+    <t>In the last 30 days, other than the activities you did for work, on average, how many days per week did you engage in moderate exercise (like walking fast, running, jogging, dancing, swimming, biking, or other similar activities)</t>
+  </si>
+  <si>
+    <t>Physical activity finding (finding)</t>
+  </si>
+  <si>
+    <t>LA6114-8</t>
+  </si>
+  <si>
+    <t>68516-4</t>
+  </si>
+  <si>
+    <t>On those days that you engage in moderate to strenuous exercise, how many minutes, on average, do you exercise</t>
+  </si>
+  <si>
+    <t>On average, how many minutes did you usually spend exercising at this level on one of those days?</t>
+  </si>
+  <si>
+    <t>LA28858-1</t>
+  </si>
+  <si>
+    <t>77594-0</t>
+  </si>
+  <si>
+    <t>Total physical activity [IPAQ]</t>
+  </si>
+  <si>
+    <t>Calculated weekly physical activity</t>
+  </si>
+  <si>
+    <t>68517-2</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you have X or more drinks in a day</t>
+  </si>
+  <si>
+    <t>How many times in the past 12 months have you had 5 or more drinks in a day (males) or 4 or more drinks in a day (females)?</t>
+  </si>
+  <si>
+    <t>Finding relating to alcohol drinking behavior (finding)</t>
+  </si>
+  <si>
+    <t>LA26460-8</t>
+  </si>
+  <si>
+    <t>Once or twice</t>
+  </si>
+  <si>
+    <t>96842-0</t>
+  </si>
+  <si>
+    <t>How often have you used any tobacco product in past 12 months</t>
+  </si>
+  <si>
+    <t>How often have you used any tobacco product in past 12 months?</t>
+  </si>
+  <si>
+    <t>Finding of tobacco use and exposure (finding)</t>
+  </si>
+  <si>
+    <t>95530-2</t>
+  </si>
+  <si>
+    <t>Prescription drug use for non-medical reasons in the past year</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you used prescription drugs for non-medical reasons?</t>
+  </si>
+  <si>
+    <t>Finding related to substance use (finding)</t>
+  </si>
+  <si>
+    <t>68524-8</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you used an illegal drug or used a prescription medication for non-medical reasons</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you used illegal drugs?</t>
+  </si>
+  <si>
+    <t>Finding relating to drug misuse behavior (finding)</t>
+  </si>
+  <si>
+    <t>44250-9</t>
+  </si>
+  <si>
+    <t>Little interest or pleasure in doing things in last 2 weeks</t>
+  </si>
+  <si>
+    <t>Little interest or pleasure in doing things?</t>
+  </si>
+  <si>
+    <t>Mental state finding (finding)</t>
+  </si>
+  <si>
+    <t>LA6568-5</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>44255-8</t>
+  </si>
+  <si>
+    <t>Feeling down, depressed, or hopeless?</t>
+  </si>
+  <si>
+    <t>71969-0</t>
+  </si>
+  <si>
+    <t>PROMIS-10 Global Mental Health (GMH) score T-score</t>
+  </si>
+  <si>
+    <t>93038-8</t>
+  </si>
+  <si>
+    <t>Stress level</t>
+  </si>
+  <si>
+    <t>Stress means a situation in which a person feels tense, restless, nervous, or anxious, or is unable to sleep at night because his or her mind is troubled all the time. Do you feel this kind of stress these days?</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>69858-9</t>
+  </si>
+  <si>
+    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions</t>
+  </si>
+  <si>
+    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions?</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>asked-declined</t>
+  </si>
+  <si>
+    <t>Asked But Declined</t>
+  </si>
+  <si>
+    <t>The source was asked but declined to answer.</t>
+  </si>
+  <si>
+    <t>69861-3</t>
+  </si>
+  <si>
+    <t>Because of a physical, mental, or emotional condition, do you have difficulty doing errands alone such as visiting a physician's office or shopping</t>
+  </si>
+  <si>
     <t>ENCOUNTER_CLASS_CODE</t>
   </si>
   <si>
@@ -1110,6 +1617,9 @@
     <t>CONSENT_DATE_TIME</t>
   </si>
   <si>
+    <t>CONSENT_STATUS</t>
+  </si>
+  <si>
     <t>CONSENT_POLICY_AUTHORITY</t>
   </si>
   <si>
@@ -1122,9 +1632,6 @@
     <t>SCREENING_STATUS_CODE</t>
   </si>
   <si>
-    <t>EncounterExample</t>
-  </si>
-  <si>
     <t>FLD</t>
   </si>
   <si>
@@ -1134,6 +1641,9 @@
     <t>Direct questioning (procedure)</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
     <t>urn:uuid:d1eaac1a-22b7-4bb6-9c62-cc95d6fdf1a5</t>
   </si>
   <si>
@@ -1143,502 +1653,10 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>SCREENING_CODE</t>
-  </si>
-  <si>
-    <t>SCREENING_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE_DISPLAY</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE_TEXT</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SDOH_TEXT</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SDOH_CODE</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SDOH_DISPLAY</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SNOMED_CODE</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SNOMED_DISPLAY</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>DATA_ABSENT_REASON_CODE</t>
-  </si>
-  <si>
-    <t>DATA_ABSENT_REASON_DISPLAY</t>
-  </si>
-  <si>
-    <t>DATA_ABSENT_REASON_TEXT</t>
-  </si>
-  <si>
-    <t>96777-8</t>
-  </si>
-  <si>
-    <t>Accountable health communities (AHC) health-related social needs screening (HRSN) tool</t>
-  </si>
-  <si>
-    <t>2023-07-12T16:08:00.000Z</t>
-  </si>
-  <si>
-    <t>71802-3</t>
-  </si>
-  <si>
-    <t>Housing status</t>
-  </si>
-  <si>
-    <t>What is your living situation today?</t>
-  </si>
-  <si>
-    <t>housing-instability</t>
-  </si>
-  <si>
-    <t>Housing Instability</t>
-  </si>
-  <si>
-    <t>LA31993-1</t>
-  </si>
-  <si>
-    <t>I have a steady place to live</t>
-  </si>
-  <si>
-    <t>96778-6</t>
-  </si>
-  <si>
-    <t>Problems with place where you live</t>
-  </si>
-  <si>
-    <t>Think about the place you live. Do you have problems with any of the following?</t>
-  </si>
-  <si>
-    <t>inadequate-housing</t>
-  </si>
-  <si>
-    <t>Inadequate Housing</t>
-  </si>
-  <si>
-    <t>LA28580-1</t>
-  </si>
-  <si>
-    <t>Mold</t>
-  </si>
-  <si>
-    <t>88122-7</t>
-  </si>
-  <si>
-    <t>Within the past 12 months we worried whether our food would run out before we got money to buy more [U.S. FSS]</t>
-  </si>
-  <si>
-    <t>Within the past 12 months, you worried that your food would run out before you got money to buy more.</t>
-  </si>
-  <si>
-    <t>food-insecurity</t>
-  </si>
-  <si>
-    <t>Food Insecurity</t>
-  </si>
-  <si>
-    <t>LA28397-0</t>
-  </si>
-  <si>
-    <t>Often true</t>
-  </si>
-  <si>
-    <t>88123-5</t>
-  </si>
-  <si>
-    <t>Within the past 12 months the food we bought just didn't last and we didn't have money to get more [U.S. FSS]</t>
-  </si>
-  <si>
-    <t>Within the past 12 months, the food you bought just didn't last and you didn't have money to get more.</t>
-  </si>
-  <si>
-    <t>93030-5</t>
-  </si>
-  <si>
-    <t>Has lack of transportation kept you from medical appointments, meetings, work, or from getting things needed for daily living</t>
-  </si>
-  <si>
-    <t>In the past 12 months, has lack of reliable transportation kept you from medical appointments, meetings, work or from getting things needed for daily living?</t>
-  </si>
-  <si>
-    <t>transportation-insecurity</t>
-  </si>
-  <si>
-    <t>Transportation Insecurity</t>
-  </si>
-  <si>
-    <t>LA32-8</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96779-4</t>
-  </si>
-  <si>
-    <t>Has the electric, gas, oil, or water company threatened to shut off services in your home in past 12 months</t>
-  </si>
-  <si>
-    <t>In the past 12 months has the electric, gas, oil, or water company threatened to shut off services in your home?</t>
-  </si>
-  <si>
-    <t>utility-insecurity</t>
-  </si>
-  <si>
-    <t>Utility Insecurity</t>
-  </si>
-  <si>
-    <t>95618-5</t>
-  </si>
-  <si>
-    <t>Physically hurt you [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, physically hurt you?</t>
-  </si>
-  <si>
-    <t>Interpersonal Safety</t>
-  </si>
-  <si>
-    <t>sdoh-category-unspecified</t>
-  </si>
-  <si>
-    <t>SDOH Category Unspecified</t>
-  </si>
-  <si>
-    <t>LA6270-8</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>95617-7</t>
-  </si>
-  <si>
-    <t>Insult you or talk down to you [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, insult or talk down to you?</t>
-  </si>
-  <si>
-    <t>95616-9</t>
-  </si>
-  <si>
-    <t>Threaten you with physical harm [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, threaten you with harm?</t>
-  </si>
-  <si>
-    <t>95615-1</t>
-  </si>
-  <si>
-    <t>Scream or curse at you [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, scream or curse at you?</t>
-  </si>
-  <si>
-    <t>95614-4</t>
-  </si>
-  <si>
-    <t>Total score [HITS]</t>
-  </si>
-  <si>
-    <t>Total Safety Score</t>
-  </si>
-  <si>
-    <t>97023-6</t>
-  </si>
-  <si>
-    <t>Accountable health communities (AHC) health-related social needs (HRSN) supplemental questions</t>
-  </si>
-  <si>
-    <t>76513-1</t>
-  </si>
-  <si>
-    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating</t>
-  </si>
-  <si>
-    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating? Would you say it is</t>
-  </si>
-  <si>
-    <t>financial-insecurity</t>
-  </si>
-  <si>
-    <t>Financial Insecurity</t>
-  </si>
-  <si>
-    <t>LA22683-9</t>
-  </si>
-  <si>
-    <t>Somewhat Hard</t>
-  </si>
-  <si>
-    <t>96780-2</t>
-  </si>
-  <si>
-    <t>Wants help finding or keeping work or a job</t>
-  </si>
-  <si>
-    <t>Do you want help finding or keeping work or a job?</t>
-  </si>
-  <si>
-    <t>employment-status</t>
-  </si>
-  <si>
-    <t>Employment Status</t>
-  </si>
-  <si>
-    <t>LA31981-6</t>
-  </si>
-  <si>
-    <t>Yes, help finding work</t>
-  </si>
-  <si>
-    <t>96781-0</t>
-  </si>
-  <si>
-    <t>Able to get help with daily activities when needed</t>
-  </si>
-  <si>
-    <t>If for any reason you need help with day-to-day activities such as bathing, preparing meals, shopping, managing finances, etc., do you get the help you need?</t>
-  </si>
-  <si>
-    <t>social-connection</t>
-  </si>
-  <si>
-    <t>Social Connection</t>
-  </si>
-  <si>
-    <t>LA31976-6</t>
-  </si>
-  <si>
-    <t>I don't need any help</t>
-  </si>
-  <si>
-    <t>93159-2</t>
-  </si>
-  <si>
-    <t>How often do you feel lonely or isolated from those around you during assessment period [CMS Assessment]</t>
-  </si>
-  <si>
-    <t>How often do you feel lonely or isolated from those around you?</t>
-  </si>
-  <si>
-    <t>97027-7</t>
-  </si>
-  <si>
-    <t>Speaks a language other than English at home</t>
-  </si>
-  <si>
-    <t>Do you speak a language other than English at home?</t>
-  </si>
-  <si>
-    <t>Language finding (finding)</t>
-  </si>
-  <si>
-    <t>LA33-6</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>96782-8</t>
-  </si>
-  <si>
-    <t>Wants help with school or training</t>
-  </si>
-  <si>
-    <t>Do you want help with school or training? For example, starting or completing job training or getting a high school diploma, GED or equivalent.</t>
-  </si>
-  <si>
-    <t>Education and/or schooling finding</t>
-  </si>
-  <si>
-    <t>89555-7</t>
-  </si>
-  <si>
-    <t>How many days per week did you engage in moderate to strenuous physical activity in the last 30 days</t>
-  </si>
-  <si>
-    <t>In the last 30 days, other than the activities you did for work, on average, how many days per week did you engage in moderate exercise (like walking fast, running, jogging, dancing, swimming, biking, or other similar activities)</t>
-  </si>
-  <si>
-    <t>Physical activity finding (finding)</t>
-  </si>
-  <si>
-    <t>LA6114-8</t>
-  </si>
-  <si>
-    <t>68516-4</t>
-  </si>
-  <si>
-    <t>On those days that you engage in moderate to strenuous exercise, how many minutes, on average, do you exercise</t>
-  </si>
-  <si>
-    <t>On average, how many minutes did you usually spend exercising at this level on one of those days?</t>
-  </si>
-  <si>
-    <t>LA28858-1</t>
-  </si>
-  <si>
-    <t>77594-0</t>
-  </si>
-  <si>
-    <t>Total physical activity [IPAQ]</t>
-  </si>
-  <si>
-    <t>Calculated weekly physical activity</t>
-  </si>
-  <si>
-    <t>68517-2</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you have X or more drinks in a day</t>
-  </si>
-  <si>
-    <t>How many times in the past 12 months have you had 5 or more drinks in a day (males) or 4 or more drinks in a day (females)?</t>
-  </si>
-  <si>
-    <t>Finding relating to alcohol drinking behavior (finding)</t>
-  </si>
-  <si>
-    <t>LA26460-8</t>
-  </si>
-  <si>
-    <t>Once or twice</t>
-  </si>
-  <si>
-    <t>96842-0</t>
-  </si>
-  <si>
-    <t>How often have you used any tobacco product in past 12 months</t>
-  </si>
-  <si>
-    <t>How often have you used any tobacco product in past 12 months?</t>
-  </si>
-  <si>
-    <t>Finding of tobacco use and exposure (finding)</t>
-  </si>
-  <si>
-    <t>95530-2</t>
-  </si>
-  <si>
-    <t>Prescription drug use for non-medical reasons in the past year</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you used prescription drugs for non-medical reasons?</t>
-  </si>
-  <si>
-    <t>Finding related to substance use (finding)</t>
-  </si>
-  <si>
-    <t>68524-8</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you used an illegal drug or used a prescription medication for non-medical reasons</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you used illegal drugs?</t>
-  </si>
-  <si>
-    <t>Finding relating to drug misuse behavior (finding)</t>
-  </si>
-  <si>
-    <t>44250-9</t>
-  </si>
-  <si>
-    <t>Little interest or pleasure in doing things in last 2 weeks</t>
-  </si>
-  <si>
-    <t>Little interest or pleasure in doing things?</t>
-  </si>
-  <si>
-    <t>Mental state finding (finding)</t>
-  </si>
-  <si>
-    <t>LA6568-5</t>
-  </si>
-  <si>
-    <t>Not at all</t>
-  </si>
-  <si>
-    <t>44255-8</t>
-  </si>
-  <si>
-    <t>Feeling down, depressed, or hopeless?</t>
-  </si>
-  <si>
-    <t>71969-0</t>
-  </si>
-  <si>
-    <t>PROMIS-10 Global Mental Health (GMH) score T-score</t>
-  </si>
-  <si>
-    <t>93038-8</t>
-  </si>
-  <si>
-    <t>Stress level</t>
-  </si>
-  <si>
-    <t>Stress means a situation in which a person feels tense, restless, nervous, or anxious, or is unable to sleep at night because his or her mind is troubled all the time. Do you feel this kind of stress these days?</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>Stress</t>
-  </si>
-  <si>
-    <t>69858-9</t>
-  </si>
-  <si>
-    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions</t>
-  </si>
-  <si>
-    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions?</t>
-  </si>
-  <si>
-    <t>Disability</t>
-  </si>
-  <si>
-    <t>asked-declined</t>
-  </si>
-  <si>
-    <t>Asked But Declined</t>
-  </si>
-  <si>
-    <t>The source was asked but declined to answer.</t>
-  </si>
-  <si>
-    <t>69861-3</t>
-  </si>
-  <si>
-    <t>Because of a physical, mental, or emotional condition, do you have difficulty doing errands alone such as visiting a physician's office or shopping</t>
-  </si>
-  <si>
-    <t>This sheet explains all the diffeence between trhe business logic and schema described in the original excel docuemt at url and SHIN-NY IG version v1.0.0. Needs to be updated.</t>
+    <t xml:space="preserve">This sheet explains all the diffeence between trhe business logic and schema described in the original excel docuemt at url and SHIN-NY IG version v1.1.0. </t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Field</t>
@@ -1774,6 +1792,9 @@
   </si>
   <si>
     <t>Screening Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following fields has been updated or added based on the  SHIN-NY IG version v1.2.1 </t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1804,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,13 +1866,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1927,12 +1941,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1943,12 +1956,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2447,108 +2459,111 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
+  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AA13E25F-FE68-4156-9DEB-4BCE28A9048C}">
     <text>PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
 This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2024-11-26T16:54:13.96" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
+  <threadedComment ref="B1" dT="2024-11-26T16:54:13.96" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{04DE7DCA-F748-4589-B2AB-4B3568CDF66F}">
     <text>This value can be found in the FHIR Encounter resource -&gt;id</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-11-26T16:54:38.88" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2024-11-26T16:56:39.49" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;status</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2024-11-26T16:58:06.67" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-11-26T16:58:32.95" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2024-11-26T16:58:54.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
-    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</text>
-  </threadedComment>
-  <threadedComment ref="H1" dT="2024-11-13T08:20:35.99" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
-    <text>This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</text>
-  </threadedComment>
-  <threadedComment ref="I1" dT="2024-11-27T04:34:23.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
-    <text>This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</text>
-  </threadedComment>
-  <threadedComment ref="J1" dT="2024-11-27T04:44:44.92" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
-    <text>This data will be found in the FHIR Consent resource -&gt;dateTime</text>
-  </threadedComment>
-  <threadedComment ref="K1" dT="2024-11-27T04:43:14.86" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
-    <text xml:space="preserve">This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </text>
-  </threadedComment>
-  <threadedComment ref="L1" dT="2024-11-27T04:45:09.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
-    <text>This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</text>
-  </threadedComment>
-  <threadedComment ref="M1" dT="2024-11-27T04:57:51.11" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
-    <text>This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</text>
-  </threadedComment>
-  <threadedComment ref="N1" dT="2024-11-13T09:10:26.90" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
-    <text>This data will be found in the  FHIR Observation resource -&gt;status</text>
+  <threadedComment ref="C1" dT="2024-11-26T17:13:40.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{8A263F6E-AEAA-4CFA-AAAD-27134A08649F}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is a grouper </text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2024-11-26T17:14:01.87" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{349F7E7F-3512-43A9-881A-6C897DAA5E48}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is a grouper </text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2024-11-26T17:17:49.79" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{BEA77AA8-6911-4D0E-BA59-4AF96FC0F5C3}">
+    <text>This data will be found in the FHIR Observation resource -&gt; effectiveDateTime</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-11-26T17:21:17.73" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{F014D3FF-B0BC-4BA1-8AF2-613B494BE08F}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is not a grouper </text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-11-26T17:21:30.01" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4B928C03-4EF4-497D-814C-FC9F483A5B10}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is not a grouper </text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-11-26T17:21:59.98" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{74CF8398-8030-4A1C-A795-9852ECDC31A6}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt; text where the observation is not a grouper </text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2024-11-27T04:09:17.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4407F58D-3F19-4F13-B62F-9F0B6D5F561F}">
+    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; text where the category is SDOH and the SDOH category is SDOH Category Unspecified</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2024-11-27T04:09:55.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{A958652F-7E6D-4528-AD64-EC68E3B0AFC8}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SDOH </text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2024-11-27T04:10:48.91" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{CB537BA9-625D-4386-86A0-060B722D2075}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is SDOH </text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2024-11-27T04:11:33.02" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AC728550-8F53-4B6C-85A8-DB8CFBEFF7F1}">
+    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SNOMED</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2024-11-27T04:12:02.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1DC423B6-3560-466F-B8E0-1431647C66FD}">
+    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is Snomed</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2024-11-27T04:13:42.78" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{34244F04-54B6-41D6-AF91-9EB079B0A4E7}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; code. </text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2024-11-27T04:13:56.21" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{20679167-3EA0-43E7-B53A-F8FAB7648DB8}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; display. </text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2024-11-27T12:45:36.80" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{6CA91F97-61DA-4680-8A35-029D10FD956E}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; code. </text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{47214620-2989-43D4-8755-5B653BA0351D}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{43671D0C-A6DE-4288-830A-962F5698A778}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; text </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AA13E25F-FE68-4156-9DEB-4BCE28A9048C}">
+  <threadedComment ref="A1" dT="2024-11-12T16:16:39.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{72896948-814B-4594-B32F-3DEFD4CEBA1B}">
     <text>PAT_MRN_ID changed to PATIENT_MR_ID_VALUE. 
 This id will be found in the FHIR Patient resource -&gt;identifier-&gt;value where Patient resource -&gt;identifier-&gt;type-&gt; code is MR</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2024-11-26T16:54:13.96" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{04DE7DCA-F748-4589-B2AB-4B3568CDF66F}">
+  <threadedComment ref="B1" dT="2024-11-26T16:54:13.96" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AB8D73DF-236D-457D-87B0-F8D41364C443}">
     <text>This value can be found in the FHIR Encounter resource -&gt;id</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-11-26T17:13:40.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{8A263F6E-AEAA-4CFA-AAAD-27134A08649F}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is a grouper </text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2024-11-26T17:14:01.87" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{349F7E7F-3512-43A9-881A-6C897DAA5E48}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is a grouper </text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2024-11-26T17:17:49.79" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{BEA77AA8-6911-4D0E-BA59-4AF96FC0F5C3}">
-    <text>This data will be found in the FHIR Observation resource -&gt; effectiveDateTime</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-11-26T17:21:17.73" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{F014D3FF-B0BC-4BA1-8AF2-613B494BE08F}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is not a grouper </text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2024-11-26T17:21:30.01" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4B928C03-4EF4-497D-814C-FC9F483A5B10}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is not a grouper </text>
-  </threadedComment>
-  <threadedComment ref="H1" dT="2024-11-26T17:21:59.98" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{74CF8398-8030-4A1C-A795-9852ECDC31A6}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;code-&gt; text where the observation is not a grouper </text>
-  </threadedComment>
-  <threadedComment ref="I1" dT="2024-11-27T04:09:17.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4407F58D-3F19-4F13-B62F-9F0B6D5F561F}">
-    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; text where the category is SDOH and the SDOH category is SDOH Category Unspecified</text>
-  </threadedComment>
-  <threadedComment ref="J1" dT="2024-11-27T04:09:55.65" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{A958652F-7E6D-4528-AD64-EC68E3B0AFC8}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SDOH </text>
-  </threadedComment>
-  <threadedComment ref="K1" dT="2024-11-27T04:10:48.91" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{CB537BA9-625D-4386-86A0-060B722D2075}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is SDOH </text>
-  </threadedComment>
-  <threadedComment ref="L1" dT="2024-11-27T04:11:33.02" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AC728550-8F53-4B6C-85A8-DB8CFBEFF7F1}">
-    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SNOMED</text>
-  </threadedComment>
-  <threadedComment ref="M1" dT="2024-11-27T04:12:02.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1DC423B6-3560-466F-B8E0-1431647C66FD}">
-    <text>This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is Snomed</text>
-  </threadedComment>
-  <threadedComment ref="N1" dT="2024-11-27T04:13:42.78" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{34244F04-54B6-41D6-AF91-9EB079B0A4E7}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; code. </text>
-  </threadedComment>
-  <threadedComment ref="O1" dT="2024-11-27T04:13:56.21" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{20679167-3EA0-43E7-B53A-F8FAB7648DB8}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; display. </text>
-  </threadedComment>
-  <threadedComment ref="P1" dT="2024-11-27T12:45:36.80" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{6CA91F97-61DA-4680-8A35-029D10FD956E}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; code. </text>
-  </threadedComment>
-  <threadedComment ref="Q1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{47214620-2989-43D4-8755-5B653BA0351D}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </text>
-  </threadedComment>
-  <threadedComment ref="R1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{43671D0C-A6DE-4288-830A-962F5698A778}">
-    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; text </text>
+  <threadedComment ref="C1" dT="2024-11-26T16:54:38.88" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{AE35D772-A976-4C9F-B0FF-7C45AA1191A3}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2024-11-26T16:56:39.49" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{804B06AA-065C-4091-83E0-ACEE1A81B407}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;status</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2024-11-26T16:58:06.67" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{536C0056-6E9A-49E5-8BD9-CAF00DCBCA85}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-11-26T16:58:32.95" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{62B258D0-7A4F-4FEB-9191-89D31F562217}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-11-26T16:58:54.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{3C505D42-CBBD-4A9C-9FC4-F0DBC06284A3}">
+    <text>This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-11-13T08:20:35.99" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{681C1D15-B369-4B3C-919A-2F0B2215C813}">
+    <text>This time will be found in the FHIR Encounter resource -&gt;meta -&gt; lastUpdated</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2024-11-27T04:34:23.34" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{486CC9F5-0999-4F96-9923-5B32950F15F6}">
+    <text>This data will be found in the FHIR Consent resource -&gt;meta -&gt; lastUpdated</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2024-11-27T04:44:44.92" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{D9E1D673-F98D-47F0-B28B-7E8DD1359EA5}">
+    <text>This data will be found in the FHIR Consent resource -&gt;dateTime</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2024-11-27T04:44:44.92" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1B51EECA-6855-4427-92C2-E6415F70E6A5}">
+    <text>This data will be found in the FHIR Consent resource -&gt;dateTime</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2024-11-27T04:43:14.86" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{4D2BC01E-23F0-4D28-A28A-6E193E7A9B3C}">
+    <text xml:space="preserve">This data will be found in the FHIR Consent resource -&gt;policy-&gt; authority </text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2024-11-27T04:45:09.38" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{7FA6E572-1D70-4E8A-926E-72DE9823A3CA}">
+    <text>This data will be found in the FHIR Consent resource -&gt;provision-&gt; type</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2024-11-27T04:57:51.11" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{205D5BEF-D18E-4444-80F7-B45EEC2E1BE9}">
+    <text>This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2024-11-13T09:10:26.90" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1A4E7674-30A3-4079-AD5C-85FD44338686}">
+    <text>This data will be found in the  FHIR Observation resource -&gt;status</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2557,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -2770,7 +2785,7 @@
       <c r="Q2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S2" s="10" t="s">
@@ -2779,7 +2794,7 @@
       <c r="T2" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="18" t="s">
         <v>55</v>
       </c>
       <c r="V2" t="s">
@@ -2830,7 +2845,7 @@
       <c r="AK2" t="s">
         <v>68</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AM2" t="s">
@@ -2957,7 +2972,7 @@
       <c r="M2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2971,134 +2986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6C365E-EF48-4ACD-93DF-A89DE3724212}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="43.5">
-      <c r="A2" s="4">
-        <v>11223344</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2">
-        <v>405672008</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{74987F24-A81E-4D42-8C47-054B30889976}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCE62ED-6F52-49FE-89FA-F3C6891E8BA9}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="L11" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3131,52 +3023,52 @@
         <v>94</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3184,37 +3076,37 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="N2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3222,37 +3114,37 @@
         <v>11223344</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3260,37 +3152,37 @@
         <v>11223344</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>131</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" t="s">
-        <v>150</v>
-      </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="N4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3298,37 +3190,37 @@
         <v>11223344</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" t="s">
-        <v>150</v>
-      </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="N5" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3336,37 +3228,37 @@
         <v>11223344</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3374,37 +3266,37 @@
         <v>11223344</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3412,40 +3304,40 @@
         <v>11223344</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="O8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3453,40 +3345,40 @@
         <v>11223344</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="N9" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="O9" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3494,40 +3386,40 @@
         <v>11223344</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="N10" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="O10" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3535,40 +3427,40 @@
         <v>11223344</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="N11" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="O11" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3576,34 +3468,34 @@
         <v>11223344</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="O12" s="10">
         <v>4</v>
@@ -3614,37 +3506,37 @@
         <v>11223344</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="K13" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N13" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="O13" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3652,37 +3544,37 @@
         <v>11223344</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="J14" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="K14" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="O14" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3690,37 +3582,37 @@
         <v>11223344</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" t="s">
         <v>189</v>
       </c>
-      <c r="D15" t="s">
+      <c r="J15" t="s">
         <v>190</v>
       </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" t="s">
-        <v>207</v>
-      </c>
-      <c r="J15" t="s">
-        <v>208</v>
-      </c>
       <c r="K15" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3728,37 +3620,37 @@
         <v>11223344</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" t="s">
         <v>190</v>
       </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J16" t="s">
-        <v>208</v>
-      </c>
       <c r="K16" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3766,37 +3658,37 @@
         <v>11223344</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L17">
         <v>106133000</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3804,37 +3696,37 @@
         <v>11223344</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="H18" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="L18">
         <v>365458002</v>
       </c>
       <c r="M18" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3842,34 +3734,34 @@
         <v>11223344</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="L19">
         <v>129861002</v>
       </c>
       <c r="M19" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="O19" s="10">
         <v>3</v>
@@ -3880,34 +3772,34 @@
         <v>11223344</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="L20">
         <v>129861002</v>
       </c>
       <c r="M20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="O20" s="10">
         <v>40</v>
@@ -3918,25 +3810,28 @@
         <v>11223344</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="H21" t="s">
-        <v>236</v>
+        <v>218</v>
+      </c>
+      <c r="O21" s="10">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3944,37 +3839,37 @@
         <v>11223344</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="L22">
         <v>228273003</v>
       </c>
       <c r="M22" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3982,37 +3877,37 @@
         <v>11223344</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="L23">
         <v>365980008</v>
       </c>
       <c r="M23" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4020,37 +3915,37 @@
         <v>11223344</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="L24">
         <v>409069009</v>
       </c>
       <c r="M24" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -4058,37 +3953,37 @@
         <v>11223344</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="L25">
         <v>228366006</v>
       </c>
       <c r="M25" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4096,37 +3991,37 @@
         <v>11223344</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L26">
         <v>36456004</v>
       </c>
       <c r="M26" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4134,37 +4029,37 @@
         <v>11223344</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="L27">
         <v>36456004</v>
       </c>
       <c r="M27" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4172,37 +4067,34 @@
         <v>11223344</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="L28">
         <v>36456004</v>
       </c>
       <c r="M28" t="s">
-        <v>258</v>
-      </c>
-      <c r="N28" t="s">
-        <v>259</v>
-      </c>
-      <c r="O28" t="s">
-        <v>260</v>
+        <v>240</v>
+      </c>
+      <c r="O28" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4210,37 +4102,37 @@
         <v>11223344</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O29" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4248,43 +4140,43 @@
         <v>11223344</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K30" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="Q30" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="R30" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4292,40 +4184,40 @@
         <v>11223344</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K31" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="N31" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="O31" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4334,1999 +4226,2442 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D60A84-5E08-43D0-B361-C2827226B37C}">
-  <dimension ref="A1:N97"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6C365E-EF48-4ACD-93DF-A89DE3724212}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="15.75">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="29.25">
+      <c r="A2" s="4">
+        <v>11223344</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2">
+        <v>405672008</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{74987F24-A81E-4D42-8C47-054B30889976}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D60A84-5E08-43D0-B361-C2827226B37C}">
+  <dimension ref="A1:O99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="15.75">
       <c r="A1" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="15.75">
-      <c r="A2" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="15.75">
+      <c r="A2" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>283</v>
       </c>
+      <c r="C2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>285</v>
+      </c>
       <c r="E2" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="17" customFormat="1">
-      <c r="A3" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="17" customFormat="1">
-      <c r="A4" s="18" t="s">
+    <row r="3" spans="1:15" s="16" customFormat="1">
+      <c r="A3" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>291</v>
       </c>
+      <c r="C3" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1">
+      <c r="A4" s="24">
+        <v>45636</v>
+      </c>
       <c r="B4" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="17" customFormat="1">
-      <c r="A5" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D4" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1">
+      <c r="A5" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="17" customFormat="1">
-      <c r="A6" s="17" t="s">
+      <c r="D5" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    </row>
+    <row r="6" spans="1:15" s="16" customFormat="1">
+      <c r="A6" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1">
+      <c r="A7" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>289</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="8" t="b">
+      <c r="F7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1">
-      <c r="A8" t="s">
+      <c r="H7" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1">
+      <c r="A8" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>289</v>
-      </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" s="16" t="b">
+      <c r="F8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1">
+      <c r="A9" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>298</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="G9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="8" customFormat="1">
+      <c r="A10" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="16" t="b">
+    <row r="11" spans="1:15">
+      <c r="A11" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H11" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1">
+      <c r="A12" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="G12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="8" customFormat="1">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="8" t="s">
+    <row r="13" spans="1:15" s="8" customFormat="1">
+      <c r="A13" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="8" customFormat="1">
+      <c r="A14" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="8" customFormat="1">
-      <c r="A12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="8" customFormat="1">
-      <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="8" customFormat="1">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" s="8" customFormat="1">
-      <c r="A15" s="8" t="s">
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1">
+      <c r="A15" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>289</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="8" t="b">
+      <c r="F15" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
+      <c r="H15" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>289</v>
-      </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F16" s="16" t="b">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="H16" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>289</v>
-      </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" s="16" t="b">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="H17" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
-        <v>302</v>
-      </c>
-      <c r="F18" s="16" t="b">
+      <c r="F18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="H18" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>289</v>
-      </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="16" t="b">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="H19" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>289</v>
-      </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="16" t="b">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="H20" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="15" customFormat="1">
+      <c r="A21" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1">
+      <c r="A28" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="16" customFormat="1">
-      <c r="A21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="F21" s="16" t="b">
+      <c r="G28" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>302</v>
-      </c>
-      <c r="F22" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>302</v>
-      </c>
-      <c r="F24" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F26" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1">
-      <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="8" customFormat="1">
-      <c r="A29" s="8" t="s">
+      <c r="H28" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="8" customFormat="1">
+      <c r="A29" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>289</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F29" s="8" t="b">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="H29" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>289</v>
-      </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D30" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" t="s">
         <v>23</v>
       </c>
-      <c r="E30" t="s">
-        <v>295</v>
-      </c>
-      <c r="F30" s="16" t="b">
+      <c r="F30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="H30" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
         <v>298</v>
       </c>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>295</v>
-      </c>
-      <c r="F31" s="16" t="b">
+      <c r="G31" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="H31" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
         <v>298</v>
       </c>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="16" t="b">
+      <c r="G32" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="H32" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
         <v>298</v>
       </c>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>295</v>
-      </c>
-      <c r="F33" s="16" t="b">
+      <c r="G33" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="H33" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
         <v>298</v>
       </c>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>295</v>
-      </c>
-      <c r="F34" s="16" t="b">
+      <c r="G34" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="H34" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
         <v>298</v>
       </c>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>289</v>
-      </c>
-      <c r="C35" t="s">
-        <v>313</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>295</v>
-      </c>
-      <c r="F35" s="16" t="b">
+      <c r="G35" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="H35" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" s="8" customFormat="1">
+      <c r="A36" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="8" customFormat="1">
+      <c r="A45" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="16" customFormat="1">
+      <c r="A46" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="16" customFormat="1">
+      <c r="A47" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="16" customFormat="1">
+      <c r="A48" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="8" customFormat="1">
+      <c r="A49" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" s="8" customFormat="1">
-      <c r="A36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F36" s="8" t="b">
+      <c r="G49" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F37" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" t="s">
-        <v>302</v>
-      </c>
-      <c r="F38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" t="s">
-        <v>302</v>
-      </c>
-      <c r="F39" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>289</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>302</v>
-      </c>
-      <c r="F40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" t="s">
-        <v>289</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>302</v>
-      </c>
-      <c r="F42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
-        <v>289</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" t="s">
-        <v>302</v>
-      </c>
-      <c r="F43" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" t="s">
-        <v>289</v>
-      </c>
-      <c r="D44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" t="s">
-        <v>302</v>
-      </c>
-      <c r="F44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="8" customFormat="1">
-      <c r="A45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="17" customFormat="1">
-      <c r="A46" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="17" customFormat="1">
-      <c r="A47" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="17" customFormat="1">
-      <c r="A48" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1">
-      <c r="A49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1">
-      <c r="A50" s="8" t="s">
+      <c r="H49" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="8" customFormat="1">
+      <c r="A50" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>315</v>
-      </c>
       <c r="C50" s="8" t="s">
-        <v>71</v>
+        <v>318</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="8" customFormat="1">
+      <c r="A51" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="F50" s="8" t="b">
+      <c r="D51" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G51" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1">
-      <c r="A51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F51" s="8" t="b">
+      <c r="H51" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="8" customFormat="1">
+      <c r="A52" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="8" customFormat="1">
-      <c r="A52" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F52" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
+      <c r="H52" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="B53" t="s">
-        <v>315</v>
-      </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
+        <v>323</v>
+      </c>
+      <c r="E53" t="s">
         <v>73</v>
       </c>
-      <c r="E53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F53" s="16" t="b">
+      <c r="F53" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G53" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
+      <c r="H53" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B54" t="s">
         <v>74</v>
       </c>
-      <c r="B54" t="s">
-        <v>315</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
+        <v>318</v>
+      </c>
+      <c r="E54" t="s">
         <v>74</v>
       </c>
-      <c r="E54" t="s">
-        <v>302</v>
-      </c>
-      <c r="F54" s="16" t="b">
+      <c r="F54" t="s">
+        <v>305</v>
+      </c>
+      <c r="G54" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="H54" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B55" t="s">
         <v>75</v>
       </c>
-      <c r="B55" t="s">
-        <v>315</v>
-      </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="D55" t="s">
         <v>75</v>
       </c>
       <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
         <v>318</v>
-      </c>
-      <c r="F55" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" t="s">
-        <v>76</v>
       </c>
       <c r="D56" t="s">
         <v>76</v>
       </c>
       <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s">
+        <v>321</v>
+      </c>
+      <c r="G56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
         <v>318</v>
-      </c>
-      <c r="F56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" t="s">
-        <v>77</v>
       </c>
       <c r="D57" t="s">
         <v>77</v>
       </c>
       <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
         <v>318</v>
       </c>
-      <c r="F57" s="16" t="b">
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" t="s">
-        <v>315</v>
-      </c>
-      <c r="D58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" t="s">
-        <v>302</v>
-      </c>
-      <c r="F58" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
+      <c r="H58" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B59" t="s">
         <v>79</v>
       </c>
-      <c r="B59" t="s">
-        <v>315</v>
-      </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D59" t="s">
         <v>79</v>
       </c>
       <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s">
+        <v>321</v>
+      </c>
+      <c r="G59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
         <v>318</v>
       </c>
-      <c r="F59" s="16" t="b">
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>305</v>
+      </c>
+      <c r="G60" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" t="s">
-        <v>315</v>
-      </c>
-      <c r="D60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" t="s">
-        <v>302</v>
-      </c>
-      <c r="F60" s="16" t="b">
+      <c r="H60" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G60" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" t="s">
-        <v>315</v>
-      </c>
-      <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" t="s">
-        <v>302</v>
-      </c>
-      <c r="F61" s="16" t="b">
+      <c r="H61" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G62" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G61" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" t="s">
-        <v>315</v>
-      </c>
-      <c r="D62" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" t="s">
-        <v>302</v>
-      </c>
-      <c r="F62" s="16" t="b">
+      <c r="H62" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:8" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:8" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:8" s="8" customFormat="1">
+      <c r="A66" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1">
-      <c r="A63" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="1:7" s="12" customFormat="1">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65" spans="1:7" s="12" customFormat="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" s="8" customFormat="1">
-      <c r="A66" s="8" t="s">
+      <c r="C66" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="F66" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G66" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="8" customFormat="1">
+      <c r="A67" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G67" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="8" customFormat="1">
+      <c r="A68" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G68" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="8" customFormat="1">
+      <c r="A69" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G69" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="8" customFormat="1">
+      <c r="A70" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G70" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="8" customFormat="1">
+      <c r="A71" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="8" customFormat="1">
+      <c r="A72" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="8" customFormat="1">
+      <c r="A73" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" t="s">
+        <v>326</v>
+      </c>
+      <c r="E74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" t="s">
+        <v>305</v>
+      </c>
+      <c r="G74" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F66" s="8" t="b">
+      <c r="H74" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" t="s">
+        <v>305</v>
+      </c>
+      <c r="G75" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" t="s">
+        <v>305</v>
+      </c>
+      <c r="G76" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>326</v>
+      </c>
+      <c r="E77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" t="s">
+        <v>305</v>
+      </c>
+      <c r="G79" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>326</v>
+      </c>
+      <c r="E80" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" t="s">
+        <v>305</v>
+      </c>
+      <c r="G80" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" t="s">
+        <v>305</v>
+      </c>
+      <c r="G81" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" t="s">
+        <v>305</v>
+      </c>
+      <c r="G82" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G83" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="8" customFormat="1">
+      <c r="A84" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G84" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="8" customFormat="1">
-      <c r="A67" s="8" t="s">
+      <c r="H84" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="8" customFormat="1">
+      <c r="A85" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C85" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67" s="8" t="b">
+      <c r="F85" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G85" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="8" customFormat="1">
-      <c r="A68" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F68" s="8" t="b">
+      <c r="H85" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="8" customFormat="1">
+      <c r="A86" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G86" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="8" customFormat="1">
-      <c r="A69" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" s="8" t="b">
+      <c r="H86" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="8" customFormat="1">
+      <c r="A87" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G87" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="8" customFormat="1">
-      <c r="A70" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F70" s="8" t="b">
+      <c r="H87" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>327</v>
+      </c>
+      <c r="E88" t="s">
+        <v>263</v>
+      </c>
+      <c r="F88" t="s">
+        <v>305</v>
+      </c>
+      <c r="G88" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B89" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" t="s">
+        <v>327</v>
+      </c>
+      <c r="E89" t="s">
+        <v>264</v>
+      </c>
+      <c r="F89" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
+        <v>327</v>
+      </c>
+      <c r="E90" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" t="s">
+        <v>305</v>
+      </c>
+      <c r="G90" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="8" customFormat="1">
+      <c r="A91" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G91" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G70" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="8" customFormat="1">
-      <c r="A71" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="8" t="b">
+      <c r="H91" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="8" customFormat="1">
+      <c r="A92" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G92" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="8" customFormat="1">
-      <c r="A72" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F72" s="8" t="b">
+      <c r="H92" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="8" customFormat="1">
+      <c r="A93" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G93" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="8" customFormat="1">
-      <c r="A73" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F73" s="8" t="b">
+      <c r="H93" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B94" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" t="s">
+        <v>327</v>
+      </c>
+      <c r="E94" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" t="s">
+        <v>305</v>
+      </c>
+      <c r="G94" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B95" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" t="s">
+        <v>327</v>
+      </c>
+      <c r="E95" t="s">
+        <v>271</v>
+      </c>
+      <c r="F95" t="s">
+        <v>305</v>
+      </c>
+      <c r="G95" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="8" customFormat="1">
+      <c r="A96" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G96" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" t="s">
-        <v>323</v>
-      </c>
-      <c r="D74" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" t="s">
-        <v>302</v>
-      </c>
-      <c r="F74" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" t="s">
-        <v>323</v>
-      </c>
-      <c r="D75" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" t="s">
-        <v>302</v>
-      </c>
-      <c r="F75" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>323</v>
-      </c>
-      <c r="D76" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" t="s">
-        <v>302</v>
-      </c>
-      <c r="F76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" t="s">
-        <v>323</v>
-      </c>
-      <c r="D77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" t="s">
-        <v>302</v>
-      </c>
-      <c r="F77" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" t="s">
-        <v>323</v>
-      </c>
-      <c r="D78" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" t="s">
-        <v>302</v>
-      </c>
-      <c r="F78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" t="s">
-        <v>323</v>
-      </c>
-      <c r="D79" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" t="s">
-        <v>302</v>
-      </c>
-      <c r="F79" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" t="s">
-        <v>323</v>
-      </c>
-      <c r="D80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" t="s">
-        <v>302</v>
-      </c>
-      <c r="F80" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" t="s">
-        <v>323</v>
-      </c>
-      <c r="D81" t="s">
-        <v>127</v>
-      </c>
-      <c r="E81" t="s">
-        <v>302</v>
-      </c>
-      <c r="F81" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" t="s">
-        <v>323</v>
-      </c>
-      <c r="D82" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" t="s">
-        <v>302</v>
-      </c>
-      <c r="F82" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" t="s">
-        <v>323</v>
-      </c>
-      <c r="D83" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" t="s">
-        <v>302</v>
-      </c>
-      <c r="F83" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F84" s="8" t="b">
+      <c r="H96" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="8" customFormat="1">
+      <c r="A97" s="24">
+        <v>45636</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G97" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="8" customFormat="1">
-      <c r="A85" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F85" s="8" t="b">
+      <c r="H97" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15.75">
+      <c r="A98" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="24">
+        <v>45649</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G99" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="8" customFormat="1">
-      <c r="A86" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F86" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="8" customFormat="1">
-      <c r="A87" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F87" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" t="s">
-        <v>324</v>
-      </c>
-      <c r="D88" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" t="s">
-        <v>302</v>
-      </c>
-      <c r="F88" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" t="s">
-        <v>324</v>
-      </c>
-      <c r="D89" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89" t="s">
-        <v>302</v>
-      </c>
-      <c r="F89" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" t="s">
-        <v>302</v>
-      </c>
-      <c r="F90" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="8" customFormat="1">
-      <c r="A91" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F91" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="8" customFormat="1">
-      <c r="A92" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F92" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="8" customFormat="1">
-      <c r="A93" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F93" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" t="s">
-        <v>324</v>
-      </c>
-      <c r="D94" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" t="s">
-        <v>302</v>
-      </c>
-      <c r="F94" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" t="s">
-        <v>324</v>
-      </c>
-      <c r="D95" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" t="s">
-        <v>302</v>
-      </c>
-      <c r="F95" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="8" customFormat="1">
-      <c r="A96" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F96" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1">
-      <c r="A97" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F97" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>296</v>
+      <c r="H99" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A63:E65"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
+  <mergeCells count="5">
+    <mergeCell ref="A98:O98"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A63:F65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
